--- a/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -501,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -565,27 +569,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>DS302</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -597,17 +601,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5 (Tutorial)</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>DS303</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -661,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5 (Tutorial)</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -681,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -739,17 +743,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -759,7 +763,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -776,22 +780,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -835,27 +839,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS307</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -867,19 +871,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
@@ -887,7 +891,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -899,27 +903,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>DS302</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -931,27 +935,2977 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: HSS_B5 (Tutorial)</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
-        </is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Graphs and Social Network</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Semiconductor Device Modeling</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Advanced Algorithm Design</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Information Security</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Signal Interpretation</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>20</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>20</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>20</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>20</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Day</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Courses</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Sections</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Consistency</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
@@ -13,6 +13,8 @@
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Semester_Rules" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Classroom_Utilization" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,17 +475,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>DS302 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302 [C405]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +495,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303 [C405]</t>
         </is>
       </c>
     </row>
@@ -510,17 +512,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 [C405]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -569,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +581,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -601,27 +603,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>DS303 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>CS307 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -633,22 +635,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C405]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS303 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,7 +667,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -685,7 +687,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -743,7 +745,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>DS303 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -753,12 +755,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303 [C405]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -775,22 +777,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS307 [C405]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302 [C405]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302 [C405]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -839,7 +841,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -849,7 +851,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -859,7 +861,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -876,7 +878,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>DS302 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -886,12 +888,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>DS303 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -903,7 +905,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>ELECTIVE_B5 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -913,7 +915,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>ELECTIVE_B5 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -923,7 +925,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C405]</t>
         </is>
       </c>
     </row>
@@ -935,12 +937,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>CS307 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -955,7 +957,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -970,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,27 +1040,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30</t>
+          <t>Mon 15:30-17:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wed 13:00-14:30</t>
+          <t>Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1087,63 +1089,6 @@
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>FIXED COMMON SLOTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Semester 5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>FIXED COMMON SLOTS</t>
         </is>
@@ -2579,7 +2524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,7 +2572,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2637,16 +2582,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -2662,7 +2607,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2672,16 +2617,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2697,7 +2642,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2707,16 +2652,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -2732,26 +2677,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC368</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -2767,26 +2712,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -2802,26 +2747,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -2837,26 +2782,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2872,7 +2817,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2882,16 +2827,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2907,26 +2852,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE351</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2942,26 +2887,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC358</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2987,12 +2932,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -3022,12 +2967,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -3057,12 +3002,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -3092,12 +3037,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -3127,12 +3072,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -3162,12 +3107,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -3197,12 +3142,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -3232,12 +3177,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -3267,12 +3212,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -3302,12 +3247,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -3319,356 +3264,6 @@
         </is>
       </c>
       <c r="G21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>20</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>20</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>20</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>20</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>20</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>20</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>20</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>20</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>20</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>20</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3685,7 +3280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3773,7 +3368,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3783,7 +3378,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3793,12 +3388,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3808,7 +3403,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, EC368, CS366, DS359, EC355, CS352, DE351, EC358</t>
+          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -3836,76 +3431,1334 @@
           <t>FIXED COMMON TIMETABLE SLOTS</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exclusion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled Baskets</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Schedule only ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Exclude ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Curriculum requirement - Semester 5 focuses on B5 electives</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ Applied</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Semester 5</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365, CS463, CS308, DS301, CS366, DS359, EC355, EC364, CS352, ASD352, EC365</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>A &amp; B (BOTH)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>✅ Achieved</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>✅ IDENTICAL across all</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>FIXED COMMON TIMETABLE SLOTS</t>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>80</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Classroom_Utilization" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,11 +437,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -467,221 +464,221 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>DS303 [C104]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DS302 [C403]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DS303 [C104]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS307 [C405]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS307 [C404]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS307 [C405]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DS303 [C401]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CS307 [C404]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DS302 [C004]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C305]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C305]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L407]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DS303 [C401]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L406]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial) [C101]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial) [C202]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L407]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C004]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial) [C302]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C004]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DS302 [C403]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial) [C405]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L406]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C202]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C202]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>DS302 [C004]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>DS303 (Tutorial) [C004]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>DS302 (Lab) [L306]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -710,258 +707,3556 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS307 [C203]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS302 [C102]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CS307 [C203]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C205]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DS303 [C003]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C205]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>DS303 [C003]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial) [C203]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial) [C003]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial) [C102]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial) [C201]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C202]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C202]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DS302 [C102]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L406]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L406]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Weekly Hours (Timetable)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Daily Avg Hours (Timetable)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Recreation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DS303 [C203]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS307 [C201]</t>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS302 [C003]</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS307 [C201]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>DS302 [C003]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>DS303 [C203]</t>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial) [C101]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C405]</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C405]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L306]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C405]</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L306]</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C204]</t>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS303 [C104]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS302 [C403]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DS303 [C104]</t>
+          <t>CS307 [C303]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307 [C405]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS307 [C405]</t>
+          <t>CS307 [C303]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303 [C404]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 (Lab) [L407]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C305]</t>
+          <t>ELECTIVE_B4 [C303]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 [C302]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C305]</t>
+          <t>ELECTIVE_B4 [C303]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L407]</t>
+          <t>CS307 (Lab) [L408]</t>
         </is>
       </c>
     </row>
@@ -599,27 +599,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>DS302 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C101]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C202]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C002]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L407]</t>
+          <t>CS307 (Lab) [L408]</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C004]</t>
+          <t>ELECTIVE_B5 [C303]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>DS303 [C404]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C303]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C004]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L306]</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DS302 [C403]</t>
+          <t>DS302 [C302]</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C004]</t>
+          <t>DS302 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C303]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L306]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303 (Tutorial) [C003]</t>
         </is>
       </c>
     </row>
@@ -741,27 +741,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>DS303 [C402]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS307 [C203]</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C305]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 [C303]</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C102]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C203]</t>
+          <t>DS303 [C402]</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS307 [C305]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C304]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 [C205]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DS303 [C003]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C205]</t>
+          <t>ELECTIVE_B4 [C304]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS303 [C003]</t>
+          <t>CS307 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -869,27 +869,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C203]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C003]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C102]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C201]</t>
+          <t>CS307 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -901,27 +901,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C202]</t>
+          <t>ELECTIVE_B5 [C102]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>DS302 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C202]</t>
+          <t>ELECTIVE_B5 [C102]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DS302 [C102]</t>
+          <t>DS302 [C303]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L406]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -933,27 +933,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>DS302 (Tutorial) [C205]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>32.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2301,17 +2301,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2411,32 +2411,32 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2461,22 +2461,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2576,27 +2576,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2626,22 +2626,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2686,17 +2686,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2741,27 +2741,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2846,22 +2846,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2901,22 +2901,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2961,17 +2961,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3016,32 +3016,32 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3066,32 +3066,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3136,12 +3136,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3181,17 +3181,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3236,27 +3236,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3291,17 +3291,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3396,17 +3396,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -3451,17 +3451,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3511,32 +3511,32 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3566,32 +3566,32 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3616,22 +3616,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3671,37 +3671,37 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3741,17 +3741,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3841,17 +3841,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3896,17 +3896,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4001,22 +4001,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4061,27 +4061,27 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4116,17 +4116,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4171,17 +4171,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4226,17 +4226,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">

--- a/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS307 [C404]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS307 [C303]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS307 [C303]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +513,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DS303 [C404]</t>
+          <t>DS302 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 [C101]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L407]</t>
+          <t>DS303 [C201]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C303]</t>
+          <t>ELECTIVE_B4 [C404]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DS302 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C303]</t>
+          <t>ELECTIVE_B4 [C404]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>CS307 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,17 +609,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C102]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C002]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C002]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C201]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>CS307 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C303]</t>
+          <t>ELECTIVE_B5 [C003]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS303 [C404]</t>
+          <t>DS303 [C201]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C303]</t>
+          <t>ELECTIVE_B5 [C003]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DS302 [C302]</t>
+          <t>CS307 [C404]</t>
         </is>
       </c>
     </row>
@@ -663,14 +663,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>DS302 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial) [C101]</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
@@ -678,12 +678,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C003]</t>
+          <t>DS303 (Tutorial) [C305]</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS303 [C402]</t>
+          <t>DS303 [C304]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>DS302 [C202]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS307 [C305]</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS302 [C303]</t>
+          <t>DS303 [C304]</t>
         </is>
       </c>
     </row>
@@ -778,22 +778,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>CS307 [C304]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS303 [C402]</t>
+          <t>DS302 [C202]</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS307 [C305]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C304]</t>
+          <t>ELECTIVE_B4 [C303]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C304]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C304]</t>
+          <t>ELECTIVE_B4 [C303]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L306]</t>
+          <t>CS307 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -874,22 +874,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C202]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C101]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C303]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C402]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L306]</t>
+          <t>CS307 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -901,22 +901,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C102]</t>
+          <t>ELECTIVE_B5 [C004]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L407]</t>
+          <t>DS302 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C102]</t>
+          <t>ELECTIVE_B5 [C004]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DS302 [C303]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -933,17 +933,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C205]</t>
+          <t>DS302 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L407]</t>
+          <t>DS302 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303 (Tutorial) [C003]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>32.5</v>
+        <v>7.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2301,17 +2301,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2356,32 +2356,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2411,17 +2411,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2461,22 +2461,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2626,17 +2626,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2686,27 +2686,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2741,27 +2741,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2846,22 +2846,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2901,22 +2901,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2961,17 +2961,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3016,32 +3016,32 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3136,12 +3136,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C404</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3246,17 +3246,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3346,27 +3346,27 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3401,17 +3401,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3451,22 +3451,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3566,17 +3566,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3586,12 +3586,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3671,22 +3671,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3696,12 +3696,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3731,17 +3731,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3786,27 +3786,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3836,32 +3836,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3891,32 +3891,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3951,12 +3951,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -4006,17 +4006,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">

--- a/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
@@ -484,12 +484,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS307 [C401]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303 [C402]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,17 +511,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS303 [C002]</t>
+          <t>DS303 [C402]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>DS302 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C401]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -575,22 +575,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>DS302 [C004]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 [C303]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 [C002]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DS303 [C002]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C002]</t>
+          <t>ELECTIVE_B4 [C303]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -612,22 +612,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C203]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C003]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C403]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C404]</t>
+          <t>DS303 (Tutorial) [C202]</t>
         </is>
       </c>
     </row>
@@ -639,27 +639,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C302]</t>
+          <t>ELECTIVE_B5 [C304]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 (Lab) [L306]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C302]</t>
+          <t>ELECTIVE_B5 [C304]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L407]</t>
+          <t>CS307 (Lab) [L306]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
     </row>
@@ -676,22 +676,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>DS302 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L407]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L408]</t>
         </is>
       </c>
     </row>
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1593,16 +1593,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1695,16 +1695,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1763,16 +1763,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1899,16 +1899,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1967,16 +1967,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>17.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2205,16 +2205,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>17.5</v>
+        <v>7.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2239,16 +2239,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2273,16 +2273,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2477,16 +2477,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2579,16 +2579,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2681,16 +2681,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2805,17 +2805,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2850,27 +2850,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2900,22 +2900,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2960,17 +2960,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3015,27 +3015,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3070,17 +3070,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -3120,22 +3120,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -3175,37 +3175,37 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -3235,27 +3235,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3290,17 +3290,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3340,32 +3340,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3395,22 +3395,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3455,17 +3455,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3475,12 +3475,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3510,17 +3510,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3530,12 +3530,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3560,22 +3560,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3615,22 +3615,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3640,12 +3640,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3675,32 +3675,32 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3730,32 +3730,32 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3785,17 +3785,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3840,22 +3840,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3895,32 +3895,32 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3950,27 +3950,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4005,17 +4005,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4060,17 +4060,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4115,17 +4115,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4165,22 +4165,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4220,22 +4220,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4280,17 +4280,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4330,22 +4330,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4390,17 +4390,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4445,17 +4445,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4500,32 +4500,32 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4555,32 +4555,32 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4605,22 +4605,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4630,12 +4630,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4660,22 +4660,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4685,12 +4685,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4720,17 +4720,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4808,27 +4808,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS307 [C201]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DS302 [C104]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS307 [C204]</t>
         </is>
       </c>
     </row>
@@ -4840,27 +4840,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS307 [C201]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS303 [C202]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>DS303 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 [C104]</t>
         </is>
       </c>
     </row>
@@ -4904,27 +4904,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C403]</t>
+          <t>ELECTIVE_B4 [C302]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DS303 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 [C403]</t>
+          <t>ELECTIVE_B4 [C302]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -4936,22 +4936,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>DS302 (Tutorial) [C403]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial) [C201]</t>
+          <t>ELECTIVE_B4 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial) [C204]</t>
+          <t>ELECTIVE_B5 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4968,27 +4968,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 [C403]</t>
+          <t>ELECTIVE_B5 [C203]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS307 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 [C203]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 [C403]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>DS303 [C302]</t>
         </is>
       </c>
     </row>
@@ -5000,22 +5000,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>DS303 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial) [C204]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L408]</t>
+          <t>DS302 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5133,39 +5133,39 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C002, C203</t>
+          <t>C402, C202</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**DS302**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Shirshendu Layek</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -5180,39 +5180,39 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L306, C004, C405</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>–</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -5227,41 +5227,41 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C401, L408</t>
+          <t>C304, C203</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**DS302**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shirshendu Layek</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>No</t>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>L407, C404, C101</t>
+          <t>L306, C203</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C303, C403</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>⚠️ 5 issues</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5441,34 +5441,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**DS302**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shirshendu Layek</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>No</t>
@@ -5481,34 +5481,34 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C204, C101, L408</t>
+          <t>C201, L407</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**DS302**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Shirshendu Layek</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C204, L408</t>
+          <t>C104, C403, L407</t>
         </is>
       </c>
     </row>
@@ -5575,41 +5575,41 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C204, C403</t>
+          <t>C202, C203</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**DS303**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Algorithms and Data Structures</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>No</t>
@@ -5622,34 +5622,34 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C403, C201</t>
+          <t>C004, C202</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**DS303**</t>
+          <t>**ELECTIVE_B4**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>–</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C302, C101</t>
+          <t>C302, C102</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>⚠️ 5 issues</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5731,7 +5731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5789,17 +5789,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5808,11 +5808,11 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -5820,29 +5820,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4, DS303</t>
+          <t>DS302, DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -5875,7 +5875,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5894,24 +5894,24 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial), DS302</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -5949,19 +5949,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5980,31 +5980,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>ELECTIVE_B5 (Tutorial), DS303 (Tutorial), DS303</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6023,11 +6023,11 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -6035,12 +6035,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial), DS302 (Tutorial), CS307</t>
+          <t>CS307, ELECTIVE_B5 (Tutorial), ELECTIVE_B5</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -6066,31 +6066,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>DS303, ELECTIVE_B5, ELECTIVE_B5 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C401</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -6133,7 +6133,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C403</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -6152,31 +6152,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4, ELECTIVE_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C402</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6195,7 +6195,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -6207,19 +6207,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -6242,15 +6242,15 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS302 (Tutorial), ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -6262,12 +6262,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6277,28 +6277,114 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Computers</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>A, B</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>DS302 (Lab), CS307 (Lab)</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1.2</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>DS302 (Lab), CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -6411,22 +6497,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -6468,22 +6554,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -6525,22 +6611,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -6582,22 +6668,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -6639,22 +6725,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -6737,7 +6823,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-03 12:04</t>
+          <t>2025-12-12 16:59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6821,12 +6907,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12/35</t>
+          <t>14/35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 34.3%</t>
+          <t>Utilization: 40.0%</t>
         </is>
       </c>
     </row>
@@ -6865,7 +6951,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>⚠️ NEEDS REVIEW</t>
+          <t>[WARN] NEEDS REVIEW</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -6978,17 +7064,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7035,17 +7121,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>✅ YES</t>
+          <t>[OK] YES</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Classroom_Utilization" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Basket_Course_Allocations" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,164 +440,144 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Fri</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS302</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>DS302 [C003]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS307 [C001]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS303 [C204]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -604,86 +587,71 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L403]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L403]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
         </is>
       </c>
     </row>
@@ -698,7 +666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,251 +675,216 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Fri</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS302</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>DS302 [C101]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS307 [C101]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>DS303</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS303 [C202]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [C203]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [C202]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [C202]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab) [C202]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -2535,4 +2468,5963 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C002, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C003, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C305, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C002, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C003, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C305, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004, C304, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004, C305, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004, C102, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C004, C104, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C004, C101</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C001, C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C004, C304, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C004, C305, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C004, C102, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C004, C104, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C004, C101</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C001, C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C002, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>C003, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>C004, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>C305, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>C004, C304, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>C004, C305, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>C004, C104, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
@@ -7,13 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Classroom_Utilization" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Classroom_Allocation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Basket_Course_Allocations" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Room_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LTPSC_Compliance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Executive_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Classroom_Allocation" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,20 +452,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Tue</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Thu</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Fri</t>
         </is>
@@ -469,52 +479,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS302 [C003]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS307 [C001]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MINOR: VLSI [C202]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS303 [C204]</t>
+          <t>DS302 [C202]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>DS302 [C202]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS307 [C202]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -523,79 +543,94 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS303 [C202]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS303 [C202]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS307 [C202]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -604,25 +639,30 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L403]</t>
+          <t>DS302 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -631,29 +671,2062 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L403]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>DS302 (Lab) [L404]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L402]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial) [C202]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L404]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L402]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C202]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C202]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C202]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C202]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C202]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C202]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C202]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C202]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C202]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C202]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS302 [C202]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS302 [C202]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS307 [C202]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS303 [C202]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DS303 [C202]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS307 [C202]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial) [C202]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L402]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>CS307 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial) [C202]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L402]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C202]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C202]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C202]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C202]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C202]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>26</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>65</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -666,7 +2739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,216 +2750,329 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Faculty</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>LTPSC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Lect/Tuts/Week</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>**DS302**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>Shirshendu Layek</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>C202, L404</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>**DS303**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS303 [C202]</t>
+          <t>Algorithms and Data Structures</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C202</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>C202, L402</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>**ELECTIVE_B4**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C203]</t>
+          <t>Total Courses: 5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Complete: 0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [C202]</t>
+          <t>Rate: 0.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [C202]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [C202]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>Lectures: 10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Labs: 4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[WARN] 5 issues</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>--</t>
         </is>
       </c>
     </row>
@@ -901,7 +3087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,137 +3098,176 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tutorial Day</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Courses in Basket</t>
+          <t>Total Sessions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Number of Courses</t>
+          <t>Sections</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Sections</t>
+          <t>Courses Assigned</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Branches</t>
+          <t>Sample Courses</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Semester</t>
+          <t>Utilization (Sessions/Day)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS463, CS308, DS301, CS366, CS463, CS308, DS301, CS366</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>DS302, MINOR: Generative Ai, MINOR: Cybersecurity...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Semester 5</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DS359, EC355, EC364, CS352, ASD352, EC365, DS359, EC355, EC364, CS352, ASD352, EC365</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Semester 5</t>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -1052,6 +3277,768 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/1/2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2026-01-18 19:02</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 3, Elective: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/5 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Elective Baskets</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Baskets Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20 courses in baskets</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3/36</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Utilization: 8.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>31.1%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A: 62.2%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Score: 39.3/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS463, CS308, DS301, CS366, CS463, CS308, DS301, CS366</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DS359, EC355, EC364, CS352, ASD352, EC365, DS359, EC355, EC364, CS352, ASD352, EC365</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2470,13 +5457,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2487,1242 +5474,737 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Room Number</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Capacity</t>
+          <t>Lecture Slots</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Weekly Hours (Timetable)</t>
+          <t>Tutorial Slot</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Daily Avg Hours (Timetable)</t>
+          <t>Total Courses in Basket</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Exam Sessions</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Utilization Rate (%)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
+          <t>Common for Both Sections</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1.5</v>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>8</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1.5</v>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>8</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
+        <v>8</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>8</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>8</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C103</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>library</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Computers, Books</t>
+        <v>8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>8</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Equipment</t>
+        <v>12</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>12</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>12</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Examination room</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Tables, Chairs</t>
+        <v>12</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>15</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>12</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1.5</v>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>12</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1.5</v>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>12</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>12</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Equipment</t>
+        <v>12</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>12</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>12</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1.5</v>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>C301</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Physics Lab</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Physics Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>C306</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>C307</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>RESEARCH LAB</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>C308</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>RESEARCH LAB</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>L401</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>12</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3731,13 +6213,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3828,22 +6310,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3862,12 +6344,12 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -3887,12 +6369,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3907,7 +6389,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -3921,12 +6403,12 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302</t>
         </is>
       </c>
     </row>
@@ -3946,12 +6428,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3961,12 +6443,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -3980,12 +6462,12 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS303</t>
         </is>
       </c>
     </row>
@@ -4005,12 +6487,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4020,12 +6502,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -4039,12 +6521,12 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -4064,25 +6546,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
@@ -4094,12 +6580,12 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -4119,12 +6605,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4134,12 +6620,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -4153,12 +6639,12 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -4178,12 +6664,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4193,12 +6679,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -4212,12 +6698,12 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -4242,7 +6728,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4265,22 +6751,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -4305,7 +6787,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4320,7 +6802,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -4328,22 +6810,18 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS302</t>
         </is>
       </c>
     </row>
@@ -4368,7 +6846,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4383,7 +6861,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -4391,22 +6869,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>DS303</t>
         </is>
       </c>
     </row>
@@ -4431,7 +6905,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4441,7 +6915,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -4450,26 +6924,22 @@
         </is>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4494,7 +6964,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4517,13 +6987,13 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -4548,12 +7018,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4576,22 +7046,18 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -4616,7 +7082,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4631,7 +7097,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -4639,22 +7105,18 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -4679,7 +7141,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4694,7 +7156,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4702,22 +7164,18 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -4742,7 +7200,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4757,7 +7215,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -4765,22 +7223,18 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -4800,27 +7254,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -4828,22 +7282,18 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -4863,27 +7313,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4891,22 +7341,18 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4926,27 +7372,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4954,22 +7400,18 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4989,27 +7431,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -5017,22 +7459,18 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -5052,27 +7490,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -5080,22 +7518,18 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -5115,27 +7549,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5143,22 +7577,18 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -5178,27 +7608,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5211,17 +7641,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -5241,27 +7671,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -5274,17 +7704,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -5304,27 +7734,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5337,17 +7767,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -5367,27 +7797,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5400,17 +7830,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -5430,27 +7860,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -5468,12 +7898,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -5493,27 +7923,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -5531,12 +7961,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -5556,27 +7986,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -5589,17 +8019,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -5619,27 +8049,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5652,17 +8082,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -5682,27 +8112,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5715,17 +8145,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -5745,25 +8175,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -5774,17 +8208,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -5804,27 +8238,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5835,15 +8269,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -5858,32 +8296,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5891,18 +8329,22 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -5917,32 +8359,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -5950,18 +8392,22 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -5976,32 +8422,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -6009,18 +8455,22 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -6035,32 +8485,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6068,18 +8518,22 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -6094,7 +8548,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6104,22 +8558,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6127,18 +8581,22 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -6153,51 +8611,55 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -6212,32 +8674,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -6245,18 +8707,22 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -6271,32 +8737,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -6309,17 +8775,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6334,32 +8800,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6372,17 +8838,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -6397,17 +8863,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6445,7 +8911,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS463</t>
         </is>
       </c>
     </row>
@@ -6460,32 +8926,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6503,12 +8969,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -6523,32 +8989,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6559,15 +9025,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS301</t>
         </is>
       </c>
     </row>
@@ -6582,32 +9052,32 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6625,12 +9095,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
     </row>
@@ -6645,32 +9115,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6683,17 +9153,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
     </row>
@@ -6708,17 +9178,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6746,7 +9216,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -6756,7 +9226,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
     </row>
@@ -6771,32 +9241,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -6809,17 +9279,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
     </row>
@@ -6834,17 +9304,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6882,7 +9352,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
     </row>
@@ -6897,17 +9367,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6945,7 +9415,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6960,17 +9430,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -7008,7 +9478,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
     </row>
@@ -7023,17 +9493,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7059,11 +9529,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>C004</t>
@@ -7071,1358 +9537,9 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>5</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>5</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>5</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>5</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>5</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>5</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>5</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>5</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>5</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>5</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>5</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>5</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>5</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Allocated Rooms</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C002, C302</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C003, C303</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C004, C304</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C305, L402</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C002, C302</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C003, C303</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C004, C304</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C305, L402</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004, C304, L405</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004, C305, L406</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004, C102, L407</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C004, C104, L408</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C004, C101</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C001, C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C004, C304, L405</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C004, C305, L406</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>C004, C102, L407</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>C004, C104, L408</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C004, C101</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>C001, C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>C002, C302</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>C003, C303</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>C004, C304</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>C305, L402</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>C004, C304, L405</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>C004, C305, L406</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>C004, C104, L408</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Classroom_Allocation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Basket_Course_Allocations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Classroom_Allocation" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Section_A" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Classroom_Utilization" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C203]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C203]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C202]</t>
+          <t>DS302 [C203]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C202]</t>
+          <t>DS302 [C203]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C205]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C202]</t>
+          <t>DS303 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS303 [C202]</t>
+          <t>DS303 [C204]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C202]</t>
+          <t>DS302 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L404]</t>
+          <t>DS302 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L402]</t>
+          <t>CS307 (Lab) [L408]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C202]</t>
+          <t>DS303 (Tutorial) [C301]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L404]</t>
+          <t>DS302 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L402]</t>
+          <t>CS307 (Lab) [L408]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C203]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C203]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
     </row>
@@ -770,6 +770,3525 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -823,27 +4342,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C203]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C203]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
     </row>
@@ -855,17 +4374,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C202]</t>
+          <t>DS302 [C203]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C202]</t>
+          <t>DS302 [C203]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C205]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -887,12 +4406,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C202]</t>
+          <t>DS303 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS303 [C202]</t>
+          <t>DS303 [C204]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -951,7 +4470,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -983,7 +4502,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C202]</t>
+          <t>DS302 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1020,7 +4539,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L402]</t>
+          <t>DS302 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1030,7 +4549,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1047,12 +4566,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C202]</t>
+          <t>DS303 (Tutorial) [C301]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L402]</t>
+          <t>DS302 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1062,7 +4581,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1079,27 +4598,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C203]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C203]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C203]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C203]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
     </row>
@@ -1108,7 +4627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1313,16 +4832,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1449,16 +4968,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1585,16 +5104,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1619,16 +5138,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1653,16 +5172,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1687,16 +5206,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1755,16 +5274,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1823,16 +5342,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1857,16 +5376,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -2143,16 +5662,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2279,16 +5798,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2363,370 +5882,6 @@
           <t>TV</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Allocated Rooms</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EC368</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DE351</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>EC358</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2837,7 +5992,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C202, L404</t>
+          <t>L407, C203</t>
         </is>
       </c>
     </row>
@@ -2884,7 +6039,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204, C301, C101</t>
         </is>
       </c>
     </row>
@@ -2931,7 +6086,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C202, L402</t>
+          <t>C204, L408, C205</t>
         </is>
       </c>
     </row>
@@ -3087,7 +6242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3145,7 +6300,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3164,7 +6319,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3172,23 +6327,23 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DS302, MINOR: Generative Ai, MINOR: Cybersecurity...</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3198,7 +6353,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3207,7 +6362,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3215,23 +6370,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>MINOR: Cybersecurity, DS302, MINOR: Design...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3241,7 +6396,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3258,14 +6413,186 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DS303, CS307</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>DS302 (Lab)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -3706,7 +7033,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 19:02</t>
+          <t>2026-01-20 00:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3773,7 +7100,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20 courses in baskets</t>
+          <t>10 courses in baskets</t>
         </is>
       </c>
     </row>
@@ -3790,12 +7117,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3/36</t>
+          <t>7/36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 8.3%</t>
+          <t>Utilization: 19.4%</t>
         </is>
       </c>
     </row>
@@ -3942,7 +7269,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS463, CS308, DS301, CS366, CS463, CS308, DS301, CS366</t>
+          <t>CS463, CS308, DS301, CS366</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3999,7 +7326,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS359, EC355, EC364, CS352, ASD352, EC365, DS359, EC355, EC364, CS352, ASD352, EC365</t>
+          <t>DS359, EC355, EC364, CS352, ASD352, EC365</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -5463,7 +8790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5530,7 +8857,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -5565,7 +8892,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -5600,7 +8927,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -5635,7 +8962,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -5651,26 +8978,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -5686,26 +9013,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -5721,26 +9048,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -5756,26 +9083,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -5796,7 +9123,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5810,7 +9137,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -5831,7 +9158,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5845,7 +9172,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -5853,356 +9180,6 @@
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>12</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>12</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>12</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>12</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>12</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>12</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>12</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>12</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>12</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6219,7 +9196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6230,3316 +9207,347 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Semester</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Branch</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Conflict</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation Type</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Basket</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
+          <t>Allocated Rooms</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>MINOR: Generative Ai</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>DS302</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>DS303</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>CS307</t>
+          <t>C001, C003</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
+          <t>C003, C004, C101</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial)</t>
+          <t>C002, C003, C102</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>MINOR: VLSI</t>
+          <t>C002, C004, C104</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>DS302</t>
+          <t>C003, C101</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>DS303</t>
+          <t>C002, C102</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>MINOR: DSAI</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>MINOR: Design</t>
-        </is>
-      </c>
+          <t>EC368</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>CS307</t>
+          <t>C001, C003</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>MINOR: Generative Ai</t>
+          <t>C003, C004, C101</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>MINOR: VLSI</t>
+          <t>C002, C003, C102</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>L207</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>L207</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>MINOR: Cybersecurity</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>MINOR: DSAI</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>MINOR: Design</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>5</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>5</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>5</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>5</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>5</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>5</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>5</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>5</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>5</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>5</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>5</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>5</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>5</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>5</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>5</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>CS463</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>5</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>CS308</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>5</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>DS301</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>5</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>CS366</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>5</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>5</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>5</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>5</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>5</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>5</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>5</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
+          <t>EC358</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C203]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C203]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C203]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C203]</t>
+          <t>DS302 [C202]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C203]</t>
+          <t>DS302 [C202]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C205]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C101]</t>
+          <t>DS303 [C202]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS303 [C204]</t>
+          <t>DS303 [C202]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C203]</t>
+          <t>DS302 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L407]</t>
+          <t>DS302 (Lab) [L408]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>CS307 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C301]</t>
+          <t>DS303 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L407]</t>
+          <t>DS302 (Lab) [L408]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>CS307 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C203]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C203]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C203]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -905,7 +905,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -969,7 +969,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1033,7 +1033,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -1097,7 +1097,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -1161,7 +1161,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1201,17 +1201,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Physics Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>nil</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Physics Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -1225,7 +1225,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C301</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -1289,7 +1289,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -1353,7 +1353,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -1417,7 +1417,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -1481,7 +1481,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1545,7 +1545,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1609,7 +1609,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -1673,7 +1673,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -1737,7 +1737,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -1801,7 +1801,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -1865,7 +1865,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -1929,7 +1929,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1969,17 +1969,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -1993,7 +1993,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2033,17 +2033,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -2057,7 +2057,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -2121,7 +2121,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -2185,7 +2185,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -2249,7 +2249,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2289,17 +2289,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2357,17 +2357,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2425,17 +2425,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2493,15 +2493,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -2517,7 +2521,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2562,12 +2566,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -2585,7 +2589,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2630,12 +2634,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -2653,7 +2657,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2693,17 +2697,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -2721,7 +2725,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2761,17 +2765,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -2789,7 +2793,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2834,10 +2838,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -2853,7 +2861,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2893,17 +2901,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -2921,7 +2929,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2961,17 +2969,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -2989,7 +2997,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3029,17 +3037,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -3057,7 +3065,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3102,7 +3110,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3125,7 +3133,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3165,15 +3173,19 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -3189,7 +3201,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3297,17 +3309,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -3325,7 +3337,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3365,19 +3377,15 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -3393,7 +3401,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3433,15 +3441,19 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -3457,7 +3469,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3502,12 +3514,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -3525,7 +3537,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3565,17 +3577,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -3593,7 +3605,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3633,17 +3645,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -3661,7 +3673,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3701,17 +3713,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -3729,7 +3741,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3774,10 +3786,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I46" t="b">
         <v>0</v>
       </c>
@@ -3793,7 +3809,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3833,17 +3849,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -3861,7 +3877,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3906,12 +3922,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -3929,7 +3945,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3974,12 +3990,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -3997,7 +4013,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -4037,17 +4053,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -4065,7 +4081,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4105,17 +4121,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -4133,7 +4149,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4178,7 +4194,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4201,7 +4217,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4249,11 +4265,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="b">
         <v>0</v>
       </c>
@@ -4269,7 +4281,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4342,27 +4354,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C203]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C203]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C203]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
@@ -4374,17 +4386,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C203]</t>
+          <t>DS302 [C202]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C203]</t>
+          <t>DS302 [C202]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C205]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4406,12 +4418,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C101]</t>
+          <t>DS303 [C202]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS303 [C204]</t>
+          <t>DS303 [C202]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4470,7 +4482,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4502,7 +4514,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C203]</t>
+          <t>DS302 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4539,7 +4551,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L406]</t>
+          <t>DS302 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4549,7 +4561,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L105]</t>
+          <t>CS307 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4566,12 +4578,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C301]</t>
+          <t>DS303 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L406]</t>
+          <t>DS302 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4581,7 +4593,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L105]</t>
+          <t>CS307 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4598,27 +4610,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C203]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C203]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C203]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C203]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C203]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
     </row>
@@ -4832,16 +4844,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -4968,16 +4980,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -5104,16 +5116,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -5138,16 +5150,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -5172,16 +5184,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -5206,16 +5218,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -5342,16 +5354,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -5376,16 +5388,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -5832,16 +5844,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -5992,7 +6004,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>L407, C203</t>
+          <t>C202, L408</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6051,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C204, C301, C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -6086,7 +6098,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C204, L408, C205</t>
+          <t>L406, C202</t>
         </is>
       </c>
     </row>
@@ -6242,7 +6254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6300,7 +6312,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -6319,7 +6331,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6327,23 +6339,23 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS303 (Tutorial), MINOR: Cybersecurity, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6353,7 +6365,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6362,7 +6374,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -6370,23 +6382,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, DS302, MINOR: Design...</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6396,7 +6408,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6413,186 +6425,14 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DS303, CS307</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>C301</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Physics Lab</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Physics Equipment</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -7033,7 +6873,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-20 00:15</t>
+          <t>2026-01-23 00:22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7117,12 +6957,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>3/36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 8.3%</t>
         </is>
       </c>
     </row>
@@ -9234,7 +9074,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -9251,7 +9091,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9108,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9125,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C003</t>
+          <t>L402, L404</t>
         </is>
       </c>
     </row>
@@ -9302,7 +9142,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C004, C101</t>
+          <t>C003, L407</t>
         </is>
       </c>
     </row>
@@ -9319,7 +9159,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C003, C102</t>
+          <t>L402, L408</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9176,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C004, C104</t>
+          <t>C001, C004, L403</t>
         </is>
       </c>
     </row>
@@ -9353,7 +9193,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C003, L404, L405</t>
         </is>
       </c>
     </row>
@@ -9370,7 +9210,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C003, C101</t>
+          <t>C002, L405, L406</t>
         </is>
       </c>
     </row>
@@ -9387,7 +9227,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C002, C102</t>
+          <t>C001, C004, L406</t>
         </is>
       </c>
     </row>
@@ -9404,7 +9244,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -9421,7 +9261,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
@@ -9438,7 +9278,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -9468,7 +9308,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C003</t>
+          <t>L402, L404</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9325,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C003, C004, C101</t>
+          <t>C003, L407</t>
         </is>
       </c>
     </row>
@@ -9502,7 +9342,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C002, C003, C102</t>
+          <t>L402, L408</t>
         </is>
       </c>
     </row>
@@ -9519,7 +9359,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C003, L404, L405</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -763,22 +763,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -979,22 +979,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -2651,16 +2651,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28.5</v>
+        <v>16.5</v>
       </c>
       <c r="E5" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>71.25</v>
+        <v>41.25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2953,16 +2953,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2987,16 +2987,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4782,7 +4782,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -5046,17 +5046,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5122,15 +5122,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -5146,7 +5150,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5194,12 +5198,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -5222,7 +5226,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5280,7 +5284,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5298,7 +5302,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5414,17 +5418,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5442,7 +5446,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5490,15 +5494,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -5514,7 +5522,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5562,12 +5570,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5590,7 +5598,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5648,7 +5656,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -5666,7 +5674,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5714,19 +5722,15 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="b">
         <v>0</v>
       </c>
@@ -5742,7 +5746,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5790,15 +5794,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -5814,7 +5822,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5862,17 +5870,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -5890,7 +5898,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5948,7 +5956,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5966,7 +5974,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6024,7 +6032,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -6042,7 +6050,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6118,7 +6126,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6166,17 +6174,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6194,7 +6202,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6242,15 +6250,19 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -6266,7 +6278,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6314,12 +6326,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -6342,7 +6354,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6400,7 +6412,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -6418,7 +6430,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6466,19 +6478,15 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="b">
         <v>0</v>
       </c>
@@ -6494,7 +6502,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6542,15 +6550,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
@@ -6566,7 +6578,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6614,17 +6626,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -6642,7 +6654,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6700,7 +6712,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -6718,7 +6730,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6776,7 +6788,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6794,7 +6806,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6870,7 +6882,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6942,7 +6954,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6986,19 +6998,15 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -7010,7 +7018,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7346,19 +7354,15 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="b">
         <v>0</v>
       </c>
@@ -7370,7 +7374,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7418,19 +7422,15 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="b">
         <v>0</v>
       </c>
@@ -7442,7 +7442,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7562,19 +7562,15 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -7586,7 +7582,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7634,19 +7630,15 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -7658,7 +7650,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7850,19 +7842,15 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="b">
         <v>0</v>
       </c>
@@ -7874,7 +7862,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -7922,19 +7910,15 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="b">
         <v>0</v>
       </c>
@@ -7946,7 +7930,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -7994,19 +7978,15 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="b">
         <v>0</v>
       </c>
@@ -8018,7 +7998,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8066,17 +8046,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -8094,7 +8074,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8142,19 +8122,15 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -8170,7 +8146,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8218,12 +8194,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -8246,7 +8222,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -8304,7 +8280,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -8322,7 +8298,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8438,17 +8414,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -8466,7 +8442,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8514,19 +8490,15 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -8542,7 +8514,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8590,12 +8562,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -8618,7 +8590,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8676,7 +8648,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -8694,7 +8666,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8742,17 +8714,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -8770,7 +8742,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8818,17 +8790,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -8846,7 +8818,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -8904,7 +8876,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -8922,7 +8894,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -8980,7 +8952,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -8998,7 +8970,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9074,7 +9046,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9198,17 +9170,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -9226,7 +9198,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9274,19 +9246,15 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="b">
         <v>0</v>
       </c>
@@ -9302,7 +9270,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9350,12 +9318,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -9378,7 +9346,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9436,7 +9404,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -9454,7 +9422,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9502,17 +9470,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -9530,7 +9498,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -9578,17 +9546,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -9606,7 +9574,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9664,7 +9632,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -9682,7 +9650,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -9740,7 +9708,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -9758,7 +9726,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -9834,7 +9802,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -10112,7 +10080,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, C104, C202</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10097,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C001, C203</t>
+          <t>C002, C104</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10114,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C204</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>
@@ -10163,7 +10131,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C101, C205</t>
+          <t>C102, C204</t>
         </is>
       </c>
     </row>
@@ -10180,7 +10148,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C302</t>
+          <t>C202, C205</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10165,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C104, C202, C303</t>
+          <t>C302, C303</t>
         </is>
       </c>
     </row>
@@ -10295,7 +10263,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C004, C104, C202</t>
+          <t>C001, C004</t>
         </is>
       </c>
     </row>
@@ -10312,7 +10280,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C001, C203</t>
+          <t>C002, C104</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10297,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C101, C205</t>
+          <t>C102, C204</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable_baskets.xlsx
@@ -474,22 +474,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS302 [C202]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS303 [C202]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -690,22 +690,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -763,22 +763,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C101]</t>
+          <t>DS302 [C203]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C101]</t>
+          <t>DS303 [C203]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -979,22 +979,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -2651,16 +2651,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>41.25</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2783,16 +2783,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2817,16 +2817,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2953,16 +2953,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3055,16 +3055,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="E14" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>26.25</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3225,16 +3225,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -3293,16 +3293,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3966,17 +3966,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -3990,7 +3990,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -4038,17 +4038,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -4062,7 +4062,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4110,17 +4110,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -4134,7 +4134,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4206,7 +4206,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4278,7 +4278,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4326,17 +4326,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -4350,7 +4350,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4398,17 +4398,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4422,7 +4422,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4470,17 +4470,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4494,7 +4494,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4542,17 +4542,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -4566,7 +4566,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4614,17 +4614,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -4638,7 +4638,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4710,7 +4710,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4782,7 +4782,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4830,17 +4830,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -4854,7 +4854,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4902,17 +4902,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -4926,7 +4926,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4974,17 +4974,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -4998,7 +4998,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5374,7 +5374,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5722,15 +5722,19 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
@@ -5746,7 +5750,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5822,7 +5826,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5880,7 +5884,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -5898,7 +5902,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5956,7 +5960,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5974,7 +5978,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6050,7 +6054,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6108,7 +6112,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -6126,7 +6130,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6202,7 +6206,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6278,7 +6282,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6354,7 +6358,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6412,7 +6416,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -6430,7 +6434,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6478,15 +6482,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
@@ -6502,7 +6510,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6578,7 +6586,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6636,7 +6644,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -6654,7 +6662,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6712,7 +6720,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -6730,7 +6738,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6806,7 +6814,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6864,7 +6872,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6882,7 +6890,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6954,7 +6962,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6998,15 +7006,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -7018,7 +7030,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7076,7 +7088,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -7090,7 +7102,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7148,7 +7160,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -7162,7 +7174,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7354,15 +7366,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
@@ -7374,7 +7390,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7422,15 +7438,19 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
@@ -7442,7 +7462,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7500,7 +7520,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -7514,7 +7534,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7562,15 +7582,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
@@ -7582,7 +7606,7 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -7630,15 +7654,19 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -7650,7 +7678,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7842,15 +7870,19 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
@@ -7862,7 +7894,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -7910,15 +7942,19 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
@@ -7930,7 +7966,7 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -7978,15 +8014,19 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
@@ -7998,7 +8038,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -8046,17 +8086,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -8074,7 +8114,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8122,15 +8162,19 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -8146,7 +8190,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8194,12 +8238,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -8222,7 +8266,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -8298,7 +8342,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8414,17 +8458,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -8442,7 +8486,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8490,15 +8534,19 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -8514,7 +8562,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8562,12 +8610,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -8590,7 +8638,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8666,7 +8714,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8714,17 +8762,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -8742,7 +8790,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8790,12 +8838,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -8818,7 +8866,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -8894,7 +8942,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -8970,7 +9018,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9028,7 +9076,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -9046,7 +9094,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9122,7 +9170,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9170,17 +9218,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -9198,7 +9246,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9246,15 +9294,19 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
@@ -9270,7 +9322,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9318,12 +9370,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -9346,7 +9398,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9422,7 +9474,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9470,17 +9522,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -9498,7 +9550,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -9546,12 +9598,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -9574,7 +9626,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -9650,7 +9702,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -9726,7 +9778,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -9784,7 +9836,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -9802,7 +9854,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -9878,7 +9930,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -10012,7 +10064,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -10029,7 +10081,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -10046,7 +10098,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -10063,7 +10115,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -10080,7 +10132,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -10097,7 +10149,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -10114,7 +10166,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -10131,7 +10183,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -10148,7 +10200,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C202, C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -10165,7 +10217,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C302, C303</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -10182,7 +10234,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -10199,7 +10251,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -10216,7 +10268,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -10246,7 +10298,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10315,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -10280,7 +10332,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C002, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -10297,7 +10349,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
